--- a/PrototiposdeComedor/bin/Debug/excelReporte.xlsx
+++ b/PrototiposdeComedor/bin/Debug/excelReporte.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R0e90b4d7f1584ad0"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R7be2beef1dcb4ae0"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:t>NOMBRE</x:t>
   </x:si>
@@ -27,15 +27,6 @@
   </x:si>
   <x:si>
     <x:t>PRECIO_PLATILLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-10-2021</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -366,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:E4"/>
+  <x:dimension ref="A1:E1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -389,57 +380,6 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2">
-      <x:c r="A2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D2">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E2">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3">
-      <x:c r="A3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E3">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4">
-      <x:c r="A4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E4">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>